--- a/data/evaluation/evaluation_Center_Spring_Cucumbers.xlsx
+++ b/data/evaluation/evaluation_Center_Spring_Cucumbers.xlsx
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>563.8769841269841</v>
+        <v>609.7103174603175</v>
       </c>
       <c r="C3" t="n">
-        <v>623696.9064100498</v>
+        <v>662646.9064100498</v>
       </c>
       <c r="D3" t="n">
-        <v>789.7448362667842</v>
+        <v>814.0312686930704</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.085623430963147</v>
+        <v>-1.215871042905936</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>579.1364071499374</v>
+        <v>585.4945965885286</v>
       </c>
       <c r="C4" t="n">
-        <v>586593.0363004407</v>
+        <v>600486.9529364252</v>
       </c>
       <c r="D4" t="n">
-        <v>765.8936194410035</v>
+        <v>774.9109322602342</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.9615492210629659</v>
+        <v>-1.008010054499915</v>
       </c>
     </row>
     <row r="5">
